--- a/excel_data/2020-11-30.xlsx
+++ b/excel_data/2020-11-30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="266">
   <si>
     <t>Position</t>
   </si>
@@ -753,9 +753,6 @@
   </si>
   <si>
     <t>12/31 400c</t>
-  </si>
-  <si>
-    <t>12/4 362p</t>
   </si>
   <si>
     <t>12/4 365c</t>
@@ -1170,10 +1167,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>12</c:v>
@@ -1203,7 +1200,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1</c:v>
@@ -1311,7 +1308,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>1</c:v>
@@ -1323,7 +1320,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>1</c:v>
@@ -1437,10 +1434,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>10</c:v>
@@ -1626,15 +1623,15 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$A$79</c:f>
+              <c:f>Sheet2!$B$2:$A$78</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$79</c:f>
+              <c:f>Sheet2!$C$3:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1810,60 +1807,57 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3212,7 +3206,7 @@
         <v>183</v>
       </c>
       <c r="C88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3221,7 +3215,7 @@
         <v>184</v>
       </c>
       <c r="C89">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3329,7 +3323,7 @@
         <v>184</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3717,7 +3711,7 @@
         <v>183</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3757,7 +3751,7 @@
         <v>184</v>
       </c>
       <c r="C139">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4163,7 +4157,7 @@
         <v>183</v>
       </c>
       <c r="C177">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4172,7 +4166,7 @@
         <v>184</v>
       </c>
       <c r="C178">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4649,7 +4643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5231,7 +5225,9 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>248</v>
       </c>
@@ -5240,14 +5236,12 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5256,7 +5250,7 @@
         <v>250</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5346,21 +5340,23 @@
         <v>260</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>262</v>
@@ -5370,9 +5366,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>263</v>
       </c>
@@ -5381,40 +5375,31 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C79">
         <v>1</v>
       </c>
     </row>
@@ -5426,10 +5411,10 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A38:A53"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
